--- a/analytics_automated/tests/gen_cwl/cwl_results.xlsx
+++ b/analytics_automated/tests/gen_cwl/cwl_results.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/echo_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/echo_tool.cwl'  [1;30mINFO [0m [job echo_tool.cwl] /tmp/vmeyipx1$ echo \     'Hello, World!' &gt; /tmp/vmeyipx1/75b21701af833d71078352fe9370984f65049eb4  [1;30mINFO [0m [job echo_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
+          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/echo_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/echo_tool.cwl'  [1;30mINFO [0m [job echo_tool.cwl] /tmp/vb2kwepl$ echo \     'Hello, World!' &gt; /tmp/vb2kwepl/75b21701af833d71078352fe9370984f65049eb4  [1;30mINFO [0m [job echo_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/cat_file_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/cat_file_tool.cwl'  [1;30mINFO [0m [job cat_file_tool.cwl] /tmp/3oh8_ydh$ sh \     -c \     'cat /tmp/iub2t9o1/stg0393f1c7-db48-4fb1-b630-fd37caa18e34/input.txt &gt; output.txt' \     /tmp/iub2t9o1/stg0393f1c7-db48-4fb1-b630-fd37caa18e34/input.txt  [1;30mINFO [0m [job cat_file_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
+          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/cat_file_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/cat_file_tool.cwl'  [1;30mINFO [0m [job cat_file_tool.cwl] /tmp/v841idk6$ sh \     -c \     'cat /tmp/bwq9fo9g/stg595362b0-b9ee-44ef-ba59-0f761bad4911/input.txt &gt; output.txt' \     /tmp/bwq9fo9g/stg595362b0-b9ee-44ef-ba59-0f761bad4911/input.txt  [1;30mINFO [0m [job cat_file_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/concat_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/concat_tool.cwl'  [1;30mINFO [0m [job concat_tool.cwl] /tmp/kim21mj9$ sh \     -c \     'cat /tmp/u550v0fe/stg5aca008f-e37d-4247-b988-b9ea1a2bf578/file1.txt /tmp/u550v0fe/stg5aca008f-e37d-4247-b988-b9ea1a2bf578/file1.txt &gt; concatenated.txt' \     /tmp/u550v0fe/stg5aca008f-e37d-4247-b988-b9ea1a2bf578/file1.txt \     /tmp/u550v0fe/stg5aca008f-e37d-4247-b988-b9ea1a2bf578/file1.txt  [1;30mINFO [0m [job concat_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
+          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/concat_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/concat_tool.cwl'  [1;30mINFO [0m [job concat_tool.cwl] /tmp/bg46d0r8$ sh \     -c \     'cat /tmp/1fzddkby/stgca69ba37-9425-4154-b2e5-9835808cbe60/file1.txt /tmp/1fzddkby/stgca69ba37-9425-4154-b2e5-9835808cbe60/file1.txt &gt; concatenated.txt' \     /tmp/1fzddkby/stgca69ba37-9425-4154-b2e5-9835808cbe60/file1.txt \     /tmp/1fzddkby/stgca69ba37-9425-4154-b2e5-9835808cbe60/file1.txt  [1;30mINFO [0m [job concat_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/conditional_workflow.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/conditional_workflow.cwl'  [1;30mINFO [0m [workflow ] start  [1;30mINFO [0m [workflow ] starting step step1  [1;30mINFO [0m [step step1] start  [1;30mINFO [0m [job step1] /tmp/a6lh6hoq$ sh \     -c \     'cat /tmp/so3jq6gr/stg2edfbcc8-f0aa-4e43-bc60-b0c80f70552f/input.txt &gt; output.txt' \     /tmp/so3jq6gr/stg2edfbcc8-f0aa-4e43-bc60-b0c80f70552f/input.txt  [1;30mINFO [0m [job step1] completed success  [1;30mINFO [0m [step step1] completed success  [1;30mINFO [0m [workflow ] starting step step2  [1;30mINFO [0m [step step2] start  [1;30mINFO [0m [job step2] /tmp/uvojxjhm$ sh \     -c \     'cat /tmp/0pn_mwzm/stg1ebabdac-6f52-450e-8c52-cac1e8ea2b1c/output.txt /tmp/0pn_mwzm/stg1ebabdac-6f52-450e-8c52-cac1e8ea2b1c/output.txt &gt; concatenated.txt' \     /tmp/0pn_mwzm/stg1ebabdac-6f52-450e-8c52-cac1e8ea2b1c/output.txt \     /tmp/0pn_mwzm/stg1ebabdac-6f52-450e-8c52-cac1e8ea2b1c/output.txt  [1;30mINFO [0m [job step2] completed success  [1;30mINFO [0m [step step2] completed success  [1;30mINFO [0m [workflow ] completed success  [1;30mINFO [0m Final process status is success </t>
+          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/conditional_workflow.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/conditional_workflow.cwl'  [1;30mINFO [0m [workflow ] start  [1;30mINFO [0m [workflow ] starting step step1  [1;30mINFO [0m [step step1] start  [1;30mINFO [0m [job step1] /tmp/6pynjyd5$ sh \     -c \     'cat /tmp/_dpqtl8z/stgbe2cd64a-a9f6-477e-ad79-6daf309d19a7/input.txt &gt; output.txt' \     /tmp/_dpqtl8z/stgbe2cd64a-a9f6-477e-ad79-6daf309d19a7/input.txt  [1;30mINFO [0m [job step1] completed success  [1;30mINFO [0m [step step1] completed success  [1;30mINFO [0m [workflow ] starting step step2  [1;30mINFO [0m [step step2] start  [1;30mINFO [0m [job step2] /tmp/wwye44e8$ sh \     -c \     'cat /tmp/9c8bhosn/stgf1106bef-38a0-467e-bb0b-541abde83739/output.txt /tmp/9c8bhosn/stgf1106bef-38a0-467e-bb0b-541abde83739/output.txt &gt; concatenated.txt' \     /tmp/9c8bhosn/stgf1106bef-38a0-467e-bb0b-541abde83739/output.txt \     /tmp/9c8bhosn/stgf1106bef-38a0-467e-bb0b-541abde83739/output.txt  [1;30mINFO [0m [job step2] completed success  [1;30mINFO [0m [step step2] completed success  [1;30mINFO [0m [workflow ] completed success  [1;30mINFO [0m Final process status is success </t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -573,12 +573,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{     "var_value": {         "location": "file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/specific_task_test/a3231b5f4ba4abea63dcb48bb07945fac4bf45c3",         "basename": "a3231b5f4ba4abea63dcb48bb07945fac4bf45c3",         "class": "File",         "checksum": "sha1$eb866a23a82be79541e9a25e0734bb5b8bb0b7c8",         "size": 14,         "path": "/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/specific_task_test/a3231b5f4ba4abea63dcb48bb07945fac4bf45c3"     } }</t>
+          <t>{     "var_value": {         "location": "file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/specific_task_test/a3231b5f4ba4abea63dcb48bb07945fac4bf45c3",         "basename": "a3231b5f4ba4abea63dcb48bb07945fac4bf45c3",         "class": "File",         "checksum": "sha1$5542779ad7a0fd1e708bd893729973f0824c14c3",         "size": 14,         "path": "/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/specific_task_test/a3231b5f4ba4abea63dcb48bb07945fac4bf45c3"     } }</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/env_var_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/env_var_tool.cwl'  [1;30mINFO [0m [job env_var_tool.cwl] /tmp/a3ykpvtg$ printenv \     HOME &gt; /tmp/a3ykpvtg/a3231b5f4ba4abea63dcb48bb07945fac4bf45c3  [1;30mINFO [0m [job env_var_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
+          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/env_var_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/env_var_tool.cwl'  [1;30mINFO [0m [job env_var_tool.cwl] /tmp/jvl0jc3j$ printenv \     HOME &gt; /tmp/jvl0jc3j/a3231b5f4ba4abea63dcb48bb07945fac4bf45c3  [1;30mINFO [0m [job env_var_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/multi_output_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/multi_output_tool.cwl'  [1;30mINFO [0m [job multi_output_tool.cwl] /tmp/appuckhy$ bash \     -c \     'echo '"'"'Hello, World!'"'"' &gt; output_file.txt' \     '' &gt; /tmp/appuckhy/0db565961181e6b3c55e4e16349a0b770e0b47cf  [1;30mINFO [0m [job multi_output_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
+          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/multi_output_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/multi_output_tool.cwl'  [1;30mINFO [0m [job multi_output_tool.cwl] /tmp/67e148d2$ bash \     -c \     'echo '"'"'Hello, World!'"'"' &gt; output_file.txt' \     '' &gt; /tmp/67e148d2/0db565961181e6b3c55e4e16349a0b770e0b47cf  [1;30mINFO [0m [job multi_output_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/process_file_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/process_file_tool.cwl'  [1;30mINFO [0m [job process_file_tool.cwl] /tmp/y5zo7pgj$ sh \     -c \     'cat /tmp/5aye95iv/stg295d6ee7-513e-437c-86c2-5784b4ad8bfa/input2.txt &gt; output.txt' \     /tmp/5aye95iv/stg295d6ee7-513e-437c-86c2-5784b4ad8bfa/input2.txt  [1;30mINFO [0m [job process_file_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
+          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/process_file_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/process_file_tool.cwl'  [1;30mINFO [0m [job process_file_tool.cwl] /tmp/wppkiu_r$ sh \     -c \     'cat /tmp/7vb_od3i/stgd53b4799-6a98-4141-aee6-2b83d7b1f612/input2.txt &gt; output.txt' \     /tmp/7vb_od3i/stgd53b4799-6a98-4141-aee6-2b83d7b1f612/input2.txt  [1;30mINFO [0m [job process_file_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -653,7 +653,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/reverse_string_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/reverse_string_tool.cwl'  [1;30mINFO [0m [job reverse_string_tool.cwl] /tmp/inchjc_m$ bash \     -c \     'echo '"'"'10test!'"'"' &gt; reversed_string.txt' \     /tmp/u10ysqbx/stg7ac0fe4a-2dae-4ec8-bb5a-608bf3d3fb7c/reversed_string.txt  [1;30mINFO [0m [job reverse_string_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
+          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/reverse_string_tool.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/reverse_string_tool.cwl'  [1;30mINFO [0m [job reverse_string_tool.cwl] /tmp/dx2zdo7b$ bash \     -c \     'echo '"'"'10test!'"'"' &gt; reversed_string.txt' \     /tmp/6fkf0yf9/stgf35fa111-d62a-45d3-a78a-bcd47583798e/reversed_string.txt  [1;30mINFO [0m [job reverse_string_tool.cwl] completed success  [1;30mINFO [0m Final process status is success </t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/simple_workflow.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/simple_workflow.cwl'  [1;30mINFO [0m [workflow ] start  [1;30mINFO [0m [workflow ] starting step step1  [1;30mINFO [0m [step step1] start  [1;30mINFO [0m [job step1] /tmp/nbm5gppx$ sh \     -c \     'cat /tmp/ovbgc0h_/stg699360ae-7249-4adf-bc80-25504545a5c2/input.txt &gt; output.txt' \     /tmp/ovbgc0h_/stg699360ae-7249-4adf-bc80-25504545a5c2/input.txt  [1;30mINFO [0m [job step1] completed success  [1;30mINFO [0m [step step1] completed success  [1;30mINFO [0m [workflow ] completed success  [1;30mINFO [0m Final process status is success </t>
+          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/simple_workflow.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/simple_workflow.cwl'  [1;30mINFO [0m [workflow ] start  [1;30mINFO [0m [workflow ] starting step step1  [1;30mINFO [0m [step step1] start  [1;30mINFO [0m [job step1] /tmp/quh0i2w2$ sh \     -c \     'cat /tmp/39dg341k/stgbeaaaefd-424a-40fc-b6a1-9622b1f916ae/input.txt &gt; output.txt' \     /tmp/39dg341k/stgbeaaaefd-424a-40fc-b6a1-9622b1f916ae/input.txt  [1;30mINFO [0m [job step1] completed success  [1;30mINFO [0m [step step1] completed success  [1;30mINFO [0m [workflow ] completed success  [1;30mINFO [0m Final process status is success </t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/workflow_example.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/workflow_example.cwl'  [1;30mWARNING [0m  [33mWorkflow checker warning: ../gen_cwl/workflow_example.cwl:26:7: 'input_string' is not an input parameter of                                       file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/cat_file_tool.cwl,                                       expected input_file [0m  [1;30mINFO [0m [workflow ] start  [1;30mINFO [0m [workflow ] starting step step1  [1;30mINFO [0m [step step1] start  [1;30mINFO [0m [job step1] /tmp/hjgfz9iz$ echo \     'example string' &gt; /tmp/hjgfz9iz/75b21701af833d71078352fe9370984f65049eb4  [1;30mINFO [0m [job step1] completed success  [1;30mINFO [0m [step step1] completed success  [1;30mINFO [0m [workflow ] starting step step2  [1;30mINFO [0m [step step2] start  [1;30mINFO [0m [job step2] /tmp/v29faa11$ sh \     -c \     'cat /tmp/fpl1m9at/stg5fc66528-1679-413d-b6f7-5de542a57981/input_file.txt &gt; output.txt' \     /tmp/fpl1m9at/stg5fc66528-1679-413d-b6f7-5de542a57981/input_file.txt  [1;30mINFO [0m [job step2] completed success  [1;30mINFO [0m [step step2] completed success  [1;30mINFO [0m [workflow ] completed success  [1;30mINFO [0m Final process status is success </t>
+          <t xml:space="preserve"> [1;30mINFO [0m /home/gty/vv-project/analytics_automated_v2/add/bin/cwltool 3.1.20240708091337  [1;30mINFO [0m Resolved '/home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/workflow_example.cwl' to 'file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/workflow_example.cwl'  [1;30mWARNING [0m  [33mWorkflow checker warning: ../gen_cwl/workflow_example.cwl:26:7: 'input_string' is not an input parameter of                                       file:///home/gty/vv-project/celery-requirement/analytics_automated_v2/analytics_automated/tests/gen_cwl/cat_file_tool.cwl,                                       expected input_file [0m  [1;30mINFO [0m [workflow ] start  [1;30mINFO [0m [workflow ] starting step step1  [1;30mINFO [0m [step step1] start  [1;30mINFO [0m [job step1] /tmp/0df6plj8$ echo \     'example string' &gt; /tmp/0df6plj8/75b21701af833d71078352fe9370984f65049eb4  [1;30mINFO [0m [job step1] completed success  [1;30mINFO [0m [step step1] completed success  [1;30mINFO [0m [workflow ] starting step step2  [1;30mINFO [0m [step step2] start  [1;30mINFO [0m [job step2] /tmp/9qaja8sy$ sh \     -c \     'cat /tmp/3p4wos_4/stg001f0480-8908-4ab2-a161-de2f58d9ae04/input_file.txt &gt; output.txt' \     /tmp/3p4wos_4/stg001f0480-8908-4ab2-a161-de2f58d9ae04/input_file.txt  [1;30mINFO [0m [job step2] completed success  [1;30mINFO [0m [step step2] completed success  [1;30mINFO [0m [workflow ] completed success  [1;30mINFO [0m Final process status is success </t>
         </is>
       </c>
       <c r="E11" t="n">
